--- a/TeamExport_A57286_Berlin_S_Period 7.xlsx
+++ b/TeamExport_A57286_Berlin_S_Period 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.boeuf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883814F-28FC-4CB0-ACFE-AD7C5222F29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A61759C-70E5-4D6E-8D65-CA6A211FFE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="220">
   <si>
     <t>FINANCIAL REPORT – FIRM SOUPE – PERIOD 7</t>
   </si>
@@ -697,36 +697,6 @@
   </si>
   <si>
     <t>Return On Marketing Investment</t>
-  </si>
-  <si>
-    <t>BRAND1</t>
-  </si>
-  <si>
-    <t>BRAND2</t>
-  </si>
-  <si>
-    <t>BRAND3</t>
-  </si>
-  <si>
-    <t>BRAND4</t>
-  </si>
-  <si>
-    <t>BRAND5</t>
-  </si>
-  <si>
-    <t>BRAND6</t>
-  </si>
-  <si>
-    <t>BRAND7</t>
-  </si>
-  <si>
-    <t>BRAND8</t>
-  </si>
-  <si>
-    <t>BRAND9</t>
-  </si>
-  <si>
-    <t>BRAND10</t>
   </si>
 </sst>
 </file>
@@ -2911,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:N91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3787,35 +3757,21 @@
     <row r="39" spans="2:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="20"/>
       <c r="E39" s="67" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="F39" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="H39" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="I39" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="J39" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="K39" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="L39" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="M39" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="N39" s="68" t="s">
-        <v>229</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G39" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="69"/>
+      <c r="N39" s="70"/>
     </row>
     <row r="40" spans="2:15" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B40" s="72"/>
@@ -4063,35 +4019,21 @@
     <row r="53" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="20"/>
       <c r="E53" s="67" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="F53" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="G53" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="H53" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="I53" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="J53" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="K53" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="L53" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="M53" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="N53" s="68" t="s">
-        <v>229</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G53" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="68"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="70"/>
     </row>
     <row r="54" spans="1:15" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B54" s="72"/>
@@ -4579,35 +4521,21 @@
     <row r="81" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="20"/>
       <c r="E81" s="67" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="F81" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="G81" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="H81" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="I81" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="J81" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="K81" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="L81" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="M81" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="N81" s="68" t="s">
-        <v>229</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81" s="68"/>
+      <c r="I81" s="69"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="69"/>
+      <c r="N81" s="70"/>
     </row>
     <row r="82" spans="1:15" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B82" s="72"/>
@@ -4772,35 +4700,21 @@
     <row r="91" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="20"/>
       <c r="E91" s="67" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="F91" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="G91" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="H91" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="I91" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="J91" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="K91" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="L91" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="M91" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="N91" s="68" t="s">
-        <v>229</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G91" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" s="68"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="69"/>
+      <c r="N91" s="70"/>
     </row>
     <row r="92" spans="1:15" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="B92" s="72"/>
